--- a/Mifos Automation Excels/Client/2710-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DuringAPRAddTR2-DISTR2on1FEB-AccCL02MAR-Repayon03MAR-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2710-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DuringAPRAddTR2-DISTR2on1FEB-AccCL02MAR-Repayon03MAR-Newcreateloan1.xlsx
@@ -185,7 +185,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,14 +202,6 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -259,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -298,9 +290,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -975,15 +964,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>41</v>
       </c>
@@ -1015,7 +1004,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>193</v>
       </c>
@@ -1046,10 +1035,8 @@
       <c r="J2" s="18">
         <v>9261.8700000000008</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-    </row>
-    <row r="3" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>192</v>
       </c>
@@ -1080,10 +1067,8 @@
       <c r="J3" s="19">
         <v>10000</v>
       </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-    </row>
-    <row r="4" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>191</v>
       </c>
@@ -1115,15 +1100,6 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
